--- a/Data_science_outputs/1500pop/Monthly_consumption/Montlhy_consumption_3.xlsx
+++ b/Data_science_outputs/1500pop/Monthly_consumption/Montlhy_consumption_3.xlsx
@@ -475,13 +475,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>29176.45275151669</v>
+        <v>21630.05437381669</v>
       </c>
       <c r="C2" t="n">
         <v>17161.49820085002</v>
       </c>
       <c r="D2" t="n">
-        <v>8594.0449513</v>
+        <v>945.00210025</v>
       </c>
       <c r="E2" t="n">
         <v>2965.3597632</v>
@@ -498,13 +498,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27429.84021151669</v>
+        <v>20220.17391350002</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8044.967763299999</v>
+        <v>865.5529498166667</v>
       </c>
       <c r="E3" t="n">
         <v>2755.029391733333</v>
@@ -521,13 +521,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29349.48151655003</v>
+        <v>21601.81707523336</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>8611.6680977</v>
+        <v>952.5652421166667</v>
       </c>
       <c r="E4" t="n">
         <v>2925.820044133333</v>
@@ -544,13 +544,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28288.23043103336</v>
+        <v>20845.57550671669</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>8340.016675133335</v>
+        <v>895.9074810833333</v>
       </c>
       <c r="E5" t="n">
         <v>2868.97134185</v>
@@ -567,13 +567,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29275.12281891669</v>
+        <v>21646.96777590003</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>8575.539436383333</v>
+        <v>958.6311651166666</v>
       </c>
       <c r="E6" t="n">
         <v>2947.1259387</v>
@@ -590,13 +590,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28354.09004983336</v>
+        <v>20920.62628503336</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>8307.964866233333</v>
+        <v>902.7633239833334</v>
       </c>
       <c r="E7" t="n">
         <v>2800.361033866667</v>
@@ -613,13 +613,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29304.65334831669</v>
+        <v>21663.58082261669</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>8610.86877485</v>
+        <v>954.9713586666667</v>
       </c>
       <c r="E8" t="n">
         <v>2933.33369105</v>
@@ -636,13 +636,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29258.60062765003</v>
+        <v>21659.76519851669</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>8627.348900333332</v>
+        <v>919.09625145</v>
       </c>
       <c r="E9" t="n">
         <v>2928.048547983333</v>
@@ -659,13 +659,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28237.94013825003</v>
+        <v>20917.60760915003</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>8345.349665350001</v>
+        <v>917.0988988833333</v>
       </c>
       <c r="E10" t="n">
         <v>2825.62863745</v>
@@ -682,13 +682,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>29238.62398665003</v>
+        <v>21599.46352998336</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8607.035287683333</v>
+        <v>927.3271675333333</v>
       </c>
       <c r="E11" t="n">
         <v>2933.169914733333</v>
@@ -705,13 +705,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28309.90115430003</v>
+        <v>20926.46264141669</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>8328.583892050001</v>
+        <v>913.3330163666667</v>
       </c>
       <c r="E12" t="n">
         <v>2867.054823816667</v>
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28293.52384196669</v>
+        <v>20969.69194388336</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>8315.8992956</v>
+        <v>874.8089380166667</v>
       </c>
       <c r="E13" t="n">
         <v>2837.1867194</v>
